--- a/GM.xlsx
+++ b/GM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F345BDE0-3C15-4501-9E7B-27703D787EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A437A5-CAC1-41F7-9A7A-D75BA03D4EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{3374891E-088D-45E4-93D8-1D0EF78127C6}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="38175" windowHeight="15240" xr2:uid="{3374891E-088D-45E4-93D8-1D0EF78127C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,25 +228,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,6 +252,27 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -286,17 +297,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -635,43 +647,44 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>49.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="3">
         <v>995.001891</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="3">
@@ -679,32 +692,32 @@
         <v>49551.094171799996</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="3">
         <f>19872+7265</f>
         <v>27137</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="3">
         <f>2141+37291+13327+76973</f>
         <v>129732</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="3">
@@ -712,13 +725,13 @@
         <v>152146.09417180001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -732,39 +745,40 @@
   <dimension ref="A1:BJ659"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="D35:F35"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3"/>
@@ -834,8 +848,8 @@
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3"/>
@@ -905,8 +919,8 @@
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="3"/>
@@ -976,8 +990,8 @@
       <c r="BI5" s="3"/>
       <c r="BJ5" s="3"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3"/>
@@ -1047,8 +1061,8 @@
       <c r="BI6" s="3"/>
       <c r="BJ6" s="3"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3"/>
@@ -1118,8 +1132,8 @@
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3"/>
@@ -1189,8 +1203,8 @@
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3"/>
@@ -1260,8 +1274,8 @@
       <c r="BI9" s="3"/>
       <c r="BJ9" s="3"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="3"/>
@@ -1331,7 +1345,7 @@
       <c r="BI10" s="3"/>
       <c r="BJ10" s="3"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1393,8 +1407,8 @@
       <c r="BI11" s="3"/>
       <c r="BJ11" s="3"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3"/>
@@ -1458,8 +1472,8 @@
       <c r="BI12" s="3"/>
       <c r="BJ12" s="3"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3"/>
@@ -1523,7 +1537,7 @@
       <c r="BI13" s="3"/>
       <c r="BJ13" s="3"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1585,8 +1599,8 @@
       <c r="BI14" s="3"/>
       <c r="BJ14" s="3"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3"/>
@@ -1654,8 +1668,8 @@
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3"/>
@@ -1723,8 +1737,8 @@
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
     </row>
-    <row r="17" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="3"/>
@@ -1792,8 +1806,8 @@
       <c r="BI17" s="3"/>
       <c r="BJ17" s="3"/>
     </row>
-    <row r="18" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3"/>
@@ -1861,8 +1875,8 @@
       <c r="BI18" s="3"/>
       <c r="BJ18" s="3"/>
     </row>
-    <row r="19" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="3"/>
@@ -1930,18 +1944,18 @@
       <c r="BI19" s="3"/>
       <c r="BJ19" s="3"/>
     </row>
-    <row r="20" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
         <v>156735</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>171842</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>187442</v>
       </c>
       <c r="G20" s="3"/>
@@ -2001,8 +2015,8 @@
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
     </row>
-    <row r="21" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="3"/>
@@ -2072,8 +2086,8 @@
       <c r="BI21" s="3"/>
       <c r="BJ21" s="3"/>
     </row>
-    <row r="22" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="3"/>
@@ -2146,8 +2160,8 @@
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
     </row>
-    <row r="23" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3"/>
@@ -2217,8 +2231,8 @@
       <c r="BI23" s="3"/>
       <c r="BJ23" s="3"/>
     </row>
-    <row r="24" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="3"/>
@@ -2288,8 +2302,8 @@
       <c r="BI24" s="3"/>
       <c r="BJ24" s="3"/>
     </row>
-    <row r="25" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="3"/>
@@ -2362,8 +2376,8 @@
       <c r="BI25" s="3"/>
       <c r="BJ25" s="3"/>
     </row>
-    <row r="26" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="3"/>
@@ -2433,8 +2447,8 @@
       <c r="BI26" s="3"/>
       <c r="BJ26" s="3"/>
     </row>
-    <row r="27" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="3"/>
@@ -2504,8 +2518,8 @@
       <c r="BI27" s="3"/>
       <c r="BJ27" s="3"/>
     </row>
-    <row r="28" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="3"/>
@@ -2575,8 +2589,8 @@
       <c r="BI28" s="3"/>
       <c r="BJ28" s="3"/>
     </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="3"/>
@@ -2649,8 +2663,8 @@
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
     </row>
-    <row r="30" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="3"/>
@@ -2720,8 +2734,8 @@
       <c r="BI30" s="3"/>
       <c r="BJ30" s="3"/>
     </row>
-    <row r="31" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="3"/>
@@ -2794,8 +2808,8 @@
       <c r="BI31" s="3"/>
       <c r="BJ31" s="3"/>
     </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="3"/>
@@ -2865,8 +2879,8 @@
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3"/>
     </row>
-    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="3"/>
@@ -2939,7 +2953,7 @@
       <c r="BI33" s="3"/>
       <c r="BJ33" s="3"/>
     </row>
-    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3001,20 +3015,20 @@
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3"/>
     </row>
-    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="7">
+      <c r="D35" s="8">
         <f t="shared" ref="D35:E35" si="5">+D33/D36</f>
         <v>6.8747404844290658</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <f t="shared" si="5"/>
         <v>7.4244868035190619</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <f>+F33/F36</f>
         <v>5.3892376681614351</v>
       </c>
@@ -3075,8 +3089,8 @@
       <c r="BI35" s="3"/>
       <c r="BJ35" s="3"/>
     </row>
-    <row r="36" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:62" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="3"/>
@@ -3146,7 +3160,7 @@
       <c r="BI36" s="3"/>
       <c r="BJ36" s="3"/>
     </row>
-    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3208,7 +3222,7 @@
       <c r="BI37" s="3"/>
       <c r="BJ37" s="3"/>
     </row>
-    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3270,7 +3284,7 @@
       <c r="BI38" s="3"/>
       <c r="BJ38" s="3"/>
     </row>
-    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3332,7 +3346,7 @@
       <c r="BI39" s="3"/>
       <c r="BJ39" s="3"/>
     </row>
-    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3394,7 +3408,7 @@
       <c r="BI40" s="3"/>
       <c r="BJ40" s="3"/>
     </row>
-    <row r="41" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3456,7 +3470,7 @@
       <c r="BI41" s="3"/>
       <c r="BJ41" s="3"/>
     </row>
-    <row r="42" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3518,7 +3532,7 @@
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3"/>
     </row>
-    <row r="43" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3580,7 +3594,7 @@
       <c r="BI43" s="3"/>
       <c r="BJ43" s="3"/>
     </row>
-    <row r="44" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3642,7 +3656,7 @@
       <c r="BI44" s="3"/>
       <c r="BJ44" s="3"/>
     </row>
-    <row r="45" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3704,7 +3718,7 @@
       <c r="BI45" s="3"/>
       <c r="BJ45" s="3"/>
     </row>
-    <row r="46" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3766,7 +3780,7 @@
       <c r="BI46" s="3"/>
       <c r="BJ46" s="3"/>
     </row>
-    <row r="47" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3828,7 +3842,7 @@
       <c r="BI47" s="3"/>
       <c r="BJ47" s="3"/>
     </row>
-    <row r="48" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:62" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3890,7 +3904,7 @@
       <c r="BI48" s="3"/>
       <c r="BJ48" s="3"/>
     </row>
-    <row r="49" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3952,7 +3966,7 @@
       <c r="BI49" s="3"/>
       <c r="BJ49" s="3"/>
     </row>
-    <row r="50" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4014,7 +4028,7 @@
       <c r="BI50" s="3"/>
       <c r="BJ50" s="3"/>
     </row>
-    <row r="51" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4076,7 +4090,7 @@
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
     </row>
-    <row r="52" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4138,7 +4152,7 @@
       <c r="BI52" s="3"/>
       <c r="BJ52" s="3"/>
     </row>
-    <row r="53" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4200,7 +4214,7 @@
       <c r="BI53" s="3"/>
       <c r="BJ53" s="3"/>
     </row>
-    <row r="54" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4262,7 +4276,7 @@
       <c r="BI54" s="3"/>
       <c r="BJ54" s="3"/>
     </row>
-    <row r="55" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4324,7 +4338,7 @@
       <c r="BI55" s="3"/>
       <c r="BJ55" s="3"/>
     </row>
-    <row r="56" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4386,7 +4400,7 @@
       <c r="BI56" s="3"/>
       <c r="BJ56" s="3"/>
     </row>
-    <row r="57" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4448,7 +4462,7 @@
       <c r="BI57" s="3"/>
       <c r="BJ57" s="3"/>
     </row>
-    <row r="58" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4510,7 +4524,7 @@
       <c r="BI58" s="3"/>
       <c r="BJ58" s="3"/>
     </row>
-    <row r="59" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4572,7 +4586,7 @@
       <c r="BI59" s="3"/>
       <c r="BJ59" s="3"/>
     </row>
-    <row r="60" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4634,7 +4648,7 @@
       <c r="BI60" s="3"/>
       <c r="BJ60" s="3"/>
     </row>
-    <row r="61" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4696,7 +4710,7 @@
       <c r="BI61" s="3"/>
       <c r="BJ61" s="3"/>
     </row>
-    <row r="62" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4758,7 +4772,7 @@
       <c r="BI62" s="3"/>
       <c r="BJ62" s="3"/>
     </row>
-    <row r="63" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4820,7 +4834,7 @@
       <c r="BI63" s="3"/>
       <c r="BJ63" s="3"/>
     </row>
-    <row r="64" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4882,7 +4896,7 @@
       <c r="BI64" s="3"/>
       <c r="BJ64" s="3"/>
     </row>
-    <row r="65" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4944,7 +4958,7 @@
       <c r="BI65" s="3"/>
       <c r="BJ65" s="3"/>
     </row>
-    <row r="66" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5006,7 +5020,7 @@
       <c r="BI66" s="3"/>
       <c r="BJ66" s="3"/>
     </row>
-    <row r="67" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5068,7 +5082,7 @@
       <c r="BI67" s="3"/>
       <c r="BJ67" s="3"/>
     </row>
-    <row r="68" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5130,7 +5144,7 @@
       <c r="BI68" s="3"/>
       <c r="BJ68" s="3"/>
     </row>
-    <row r="69" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5192,7 +5206,7 @@
       <c r="BI69" s="3"/>
       <c r="BJ69" s="3"/>
     </row>
-    <row r="70" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5254,7 +5268,7 @@
       <c r="BI70" s="3"/>
       <c r="BJ70" s="3"/>
     </row>
-    <row r="71" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5316,7 +5330,7 @@
       <c r="BI71" s="3"/>
       <c r="BJ71" s="3"/>
     </row>
-    <row r="72" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5378,7 +5392,7 @@
       <c r="BI72" s="3"/>
       <c r="BJ72" s="3"/>
     </row>
-    <row r="73" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5440,7 +5454,7 @@
       <c r="BI73" s="3"/>
       <c r="BJ73" s="3"/>
     </row>
-    <row r="74" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5502,7 +5516,7 @@
       <c r="BI74" s="3"/>
       <c r="BJ74" s="3"/>
     </row>
-    <row r="75" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5564,7 +5578,7 @@
       <c r="BI75" s="3"/>
       <c r="BJ75" s="3"/>
     </row>
-    <row r="76" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5626,7 +5640,7 @@
       <c r="BI76" s="3"/>
       <c r="BJ76" s="3"/>
     </row>
-    <row r="77" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5688,7 +5702,7 @@
       <c r="BI77" s="3"/>
       <c r="BJ77" s="3"/>
     </row>
-    <row r="78" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5750,7 +5764,7 @@
       <c r="BI78" s="3"/>
       <c r="BJ78" s="3"/>
     </row>
-    <row r="79" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5812,7 +5826,7 @@
       <c r="BI79" s="3"/>
       <c r="BJ79" s="3"/>
     </row>
-    <row r="80" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5874,7 +5888,7 @@
       <c r="BI80" s="3"/>
       <c r="BJ80" s="3"/>
     </row>
-    <row r="81" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5936,7 +5950,7 @@
       <c r="BI81" s="3"/>
       <c r="BJ81" s="3"/>
     </row>
-    <row r="82" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5998,7 +6012,7 @@
       <c r="BI82" s="3"/>
       <c r="BJ82" s="3"/>
     </row>
-    <row r="83" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6060,7 +6074,7 @@
       <c r="BI83" s="3"/>
       <c r="BJ83" s="3"/>
     </row>
-    <row r="84" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6122,7 +6136,7 @@
       <c r="BI84" s="3"/>
       <c r="BJ84" s="3"/>
     </row>
-    <row r="85" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6184,7 +6198,7 @@
       <c r="BI85" s="3"/>
       <c r="BJ85" s="3"/>
     </row>
-    <row r="86" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6246,7 +6260,7 @@
       <c r="BI86" s="3"/>
       <c r="BJ86" s="3"/>
     </row>
-    <row r="87" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6308,7 +6322,7 @@
       <c r="BI87" s="3"/>
       <c r="BJ87" s="3"/>
     </row>
-    <row r="88" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6370,7 +6384,7 @@
       <c r="BI88" s="3"/>
       <c r="BJ88" s="3"/>
     </row>
-    <row r="89" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6432,7 +6446,7 @@
       <c r="BI89" s="3"/>
       <c r="BJ89" s="3"/>
     </row>
-    <row r="90" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6494,7 +6508,7 @@
       <c r="BI90" s="3"/>
       <c r="BJ90" s="3"/>
     </row>
-    <row r="91" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6556,7 +6570,7 @@
       <c r="BI91" s="3"/>
       <c r="BJ91" s="3"/>
     </row>
-    <row r="92" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6618,7 +6632,7 @@
       <c r="BI92" s="3"/>
       <c r="BJ92" s="3"/>
     </row>
-    <row r="93" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6680,7 +6694,7 @@
       <c r="BI93" s="3"/>
       <c r="BJ93" s="3"/>
     </row>
-    <row r="94" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6742,7 +6756,7 @@
       <c r="BI94" s="3"/>
       <c r="BJ94" s="3"/>
     </row>
-    <row r="95" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6804,7 +6818,7 @@
       <c r="BI95" s="3"/>
       <c r="BJ95" s="3"/>
     </row>
-    <row r="96" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6866,7 +6880,7 @@
       <c r="BI96" s="3"/>
       <c r="BJ96" s="3"/>
     </row>
-    <row r="97" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6928,7 +6942,7 @@
       <c r="BI97" s="3"/>
       <c r="BJ97" s="3"/>
     </row>
-    <row r="98" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6990,7 +7004,7 @@
       <c r="BI98" s="3"/>
       <c r="BJ98" s="3"/>
     </row>
-    <row r="99" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7052,7 +7066,7 @@
       <c r="BI99" s="3"/>
       <c r="BJ99" s="3"/>
     </row>
-    <row r="100" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7114,7 +7128,7 @@
       <c r="BI100" s="3"/>
       <c r="BJ100" s="3"/>
     </row>
-    <row r="101" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7176,7 +7190,7 @@
       <c r="BI101" s="3"/>
       <c r="BJ101" s="3"/>
     </row>
-    <row r="102" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7238,7 +7252,7 @@
       <c r="BI102" s="3"/>
       <c r="BJ102" s="3"/>
     </row>
-    <row r="103" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7300,7 +7314,7 @@
       <c r="BI103" s="3"/>
       <c r="BJ103" s="3"/>
     </row>
-    <row r="104" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7362,7 +7376,7 @@
       <c r="BI104" s="3"/>
       <c r="BJ104" s="3"/>
     </row>
-    <row r="105" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7424,7 +7438,7 @@
       <c r="BI105" s="3"/>
       <c r="BJ105" s="3"/>
     </row>
-    <row r="106" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7486,7 +7500,7 @@
       <c r="BI106" s="3"/>
       <c r="BJ106" s="3"/>
     </row>
-    <row r="107" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7548,7 +7562,7 @@
       <c r="BI107" s="3"/>
       <c r="BJ107" s="3"/>
     </row>
-    <row r="108" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7610,7 +7624,7 @@
       <c r="BI108" s="3"/>
       <c r="BJ108" s="3"/>
     </row>
-    <row r="109" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7672,7 +7686,7 @@
       <c r="BI109" s="3"/>
       <c r="BJ109" s="3"/>
     </row>
-    <row r="110" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7734,7 +7748,7 @@
       <c r="BI110" s="3"/>
       <c r="BJ110" s="3"/>
     </row>
-    <row r="111" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7796,7 +7810,7 @@
       <c r="BI111" s="3"/>
       <c r="BJ111" s="3"/>
     </row>
-    <row r="112" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7858,7 +7872,7 @@
       <c r="BI112" s="3"/>
       <c r="BJ112" s="3"/>
     </row>
-    <row r="113" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -7920,7 +7934,7 @@
       <c r="BI113" s="3"/>
       <c r="BJ113" s="3"/>
     </row>
-    <row r="114" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7982,7 +7996,7 @@
       <c r="BI114" s="3"/>
       <c r="BJ114" s="3"/>
     </row>
-    <row r="115" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8044,7 +8058,7 @@
       <c r="BI115" s="3"/>
       <c r="BJ115" s="3"/>
     </row>
-    <row r="116" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8106,7 +8120,7 @@
       <c r="BI116" s="3"/>
       <c r="BJ116" s="3"/>
     </row>
-    <row r="117" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8168,7 +8182,7 @@
       <c r="BI117" s="3"/>
       <c r="BJ117" s="3"/>
     </row>
-    <row r="118" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8230,7 +8244,7 @@
       <c r="BI118" s="3"/>
       <c r="BJ118" s="3"/>
     </row>
-    <row r="119" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8292,7 +8306,7 @@
       <c r="BI119" s="3"/>
       <c r="BJ119" s="3"/>
     </row>
-    <row r="120" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8354,7 +8368,7 @@
       <c r="BI120" s="3"/>
       <c r="BJ120" s="3"/>
     </row>
-    <row r="121" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8416,7 +8430,7 @@
       <c r="BI121" s="3"/>
       <c r="BJ121" s="3"/>
     </row>
-    <row r="122" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8478,7 +8492,7 @@
       <c r="BI122" s="3"/>
       <c r="BJ122" s="3"/>
     </row>
-    <row r="123" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8540,7 +8554,7 @@
       <c r="BI123" s="3"/>
       <c r="BJ123" s="3"/>
     </row>
-    <row r="124" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8602,7 +8616,7 @@
       <c r="BI124" s="3"/>
       <c r="BJ124" s="3"/>
     </row>
-    <row r="125" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -8664,7 +8678,7 @@
       <c r="BI125" s="3"/>
       <c r="BJ125" s="3"/>
     </row>
-    <row r="126" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -8726,7 +8740,7 @@
       <c r="BI126" s="3"/>
       <c r="BJ126" s="3"/>
     </row>
-    <row r="127" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -8788,7 +8802,7 @@
       <c r="BI127" s="3"/>
       <c r="BJ127" s="3"/>
     </row>
-    <row r="128" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -8850,7 +8864,7 @@
       <c r="BI128" s="3"/>
       <c r="BJ128" s="3"/>
     </row>
-    <row r="129" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8912,7 +8926,7 @@
       <c r="BI129" s="3"/>
       <c r="BJ129" s="3"/>
     </row>
-    <row r="130" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -8974,7 +8988,7 @@
       <c r="BI130" s="3"/>
       <c r="BJ130" s="3"/>
     </row>
-    <row r="131" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -9036,7 +9050,7 @@
       <c r="BI131" s="3"/>
       <c r="BJ131" s="3"/>
     </row>
-    <row r="132" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -9098,7 +9112,7 @@
       <c r="BI132" s="3"/>
       <c r="BJ132" s="3"/>
     </row>
-    <row r="133" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -9160,7 +9174,7 @@
       <c r="BI133" s="3"/>
       <c r="BJ133" s="3"/>
     </row>
-    <row r="134" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -9222,7 +9236,7 @@
       <c r="BI134" s="3"/>
       <c r="BJ134" s="3"/>
     </row>
-    <row r="135" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9284,7 +9298,7 @@
       <c r="BI135" s="3"/>
       <c r="BJ135" s="3"/>
     </row>
-    <row r="136" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9346,7 +9360,7 @@
       <c r="BI136" s="3"/>
       <c r="BJ136" s="3"/>
     </row>
-    <row r="137" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9408,7 +9422,7 @@
       <c r="BI137" s="3"/>
       <c r="BJ137" s="3"/>
     </row>
-    <row r="138" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9470,7 +9484,7 @@
       <c r="BI138" s="3"/>
       <c r="BJ138" s="3"/>
     </row>
-    <row r="139" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9532,7 +9546,7 @@
       <c r="BI139" s="3"/>
       <c r="BJ139" s="3"/>
     </row>
-    <row r="140" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9594,7 +9608,7 @@
       <c r="BI140" s="3"/>
       <c r="BJ140" s="3"/>
     </row>
-    <row r="141" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9656,7 +9670,7 @@
       <c r="BI141" s="3"/>
       <c r="BJ141" s="3"/>
     </row>
-    <row r="142" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9718,7 +9732,7 @@
       <c r="BI142" s="3"/>
       <c r="BJ142" s="3"/>
     </row>
-    <row r="143" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -9780,7 +9794,7 @@
       <c r="BI143" s="3"/>
       <c r="BJ143" s="3"/>
     </row>
-    <row r="144" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -9842,7 +9856,7 @@
       <c r="BI144" s="3"/>
       <c r="BJ144" s="3"/>
     </row>
-    <row r="145" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -9904,7 +9918,7 @@
       <c r="BI145" s="3"/>
       <c r="BJ145" s="3"/>
     </row>
-    <row r="146" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -9966,7 +9980,7 @@
       <c r="BI146" s="3"/>
       <c r="BJ146" s="3"/>
     </row>
-    <row r="147" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -10028,7 +10042,7 @@
       <c r="BI147" s="3"/>
       <c r="BJ147" s="3"/>
     </row>
-    <row r="148" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -10090,7 +10104,7 @@
       <c r="BI148" s="3"/>
       <c r="BJ148" s="3"/>
     </row>
-    <row r="149" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -10152,7 +10166,7 @@
       <c r="BI149" s="3"/>
       <c r="BJ149" s="3"/>
     </row>
-    <row r="150" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -10214,7 +10228,7 @@
       <c r="BI150" s="3"/>
       <c r="BJ150" s="3"/>
     </row>
-    <row r="151" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -10276,7 +10290,7 @@
       <c r="BI151" s="3"/>
       <c r="BJ151" s="3"/>
     </row>
-    <row r="152" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -10338,7 +10352,7 @@
       <c r="BI152" s="3"/>
       <c r="BJ152" s="3"/>
     </row>
-    <row r="153" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -10400,7 +10414,7 @@
       <c r="BI153" s="3"/>
       <c r="BJ153" s="3"/>
     </row>
-    <row r="154" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -10462,7 +10476,7 @@
       <c r="BI154" s="3"/>
       <c r="BJ154" s="3"/>
     </row>
-    <row r="155" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10524,7 +10538,7 @@
       <c r="BI155" s="3"/>
       <c r="BJ155" s="3"/>
     </row>
-    <row r="156" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -10586,7 +10600,7 @@
       <c r="BI156" s="3"/>
       <c r="BJ156" s="3"/>
     </row>
-    <row r="157" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10648,7 +10662,7 @@
       <c r="BI157" s="3"/>
       <c r="BJ157" s="3"/>
     </row>
-    <row r="158" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10710,7 +10724,7 @@
       <c r="BI158" s="3"/>
       <c r="BJ158" s="3"/>
     </row>
-    <row r="159" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -10772,7 +10786,7 @@
       <c r="BI159" s="3"/>
       <c r="BJ159" s="3"/>
     </row>
-    <row r="160" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -10834,7 +10848,7 @@
       <c r="BI160" s="3"/>
       <c r="BJ160" s="3"/>
     </row>
-    <row r="161" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -10896,7 +10910,7 @@
       <c r="BI161" s="3"/>
       <c r="BJ161" s="3"/>
     </row>
-    <row r="162" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -10958,7 +10972,7 @@
       <c r="BI162" s="3"/>
       <c r="BJ162" s="3"/>
     </row>
-    <row r="163" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -11020,7 +11034,7 @@
       <c r="BI163" s="3"/>
       <c r="BJ163" s="3"/>
     </row>
-    <row r="164" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -11082,7 +11096,7 @@
       <c r="BI164" s="3"/>
       <c r="BJ164" s="3"/>
     </row>
-    <row r="165" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11144,7 +11158,7 @@
       <c r="BI165" s="3"/>
       <c r="BJ165" s="3"/>
     </row>
-    <row r="166" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11206,7 +11220,7 @@
       <c r="BI166" s="3"/>
       <c r="BJ166" s="3"/>
     </row>
-    <row r="167" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -11268,7 +11282,7 @@
       <c r="BI167" s="3"/>
       <c r="BJ167" s="3"/>
     </row>
-    <row r="168" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -11330,7 +11344,7 @@
       <c r="BI168" s="3"/>
       <c r="BJ168" s="3"/>
     </row>
-    <row r="169" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -11392,7 +11406,7 @@
       <c r="BI169" s="3"/>
       <c r="BJ169" s="3"/>
     </row>
-    <row r="170" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -11454,7 +11468,7 @@
       <c r="BI170" s="3"/>
       <c r="BJ170" s="3"/>
     </row>
-    <row r="171" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -11516,7 +11530,7 @@
       <c r="BI171" s="3"/>
       <c r="BJ171" s="3"/>
     </row>
-    <row r="172" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -11578,7 +11592,7 @@
       <c r="BI172" s="3"/>
       <c r="BJ172" s="3"/>
     </row>
-    <row r="173" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -11640,7 +11654,7 @@
       <c r="BI173" s="3"/>
       <c r="BJ173" s="3"/>
     </row>
-    <row r="174" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -11702,7 +11716,7 @@
       <c r="BI174" s="3"/>
       <c r="BJ174" s="3"/>
     </row>
-    <row r="175" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -11764,7 +11778,7 @@
       <c r="BI175" s="3"/>
       <c r="BJ175" s="3"/>
     </row>
-    <row r="176" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -11826,7 +11840,7 @@
       <c r="BI176" s="3"/>
       <c r="BJ176" s="3"/>
     </row>
-    <row r="177" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -11888,7 +11902,7 @@
       <c r="BI177" s="3"/>
       <c r="BJ177" s="3"/>
     </row>
-    <row r="178" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -11950,7 +11964,7 @@
       <c r="BI178" s="3"/>
       <c r="BJ178" s="3"/>
     </row>
-    <row r="179" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -12012,7 +12026,7 @@
       <c r="BI179" s="3"/>
       <c r="BJ179" s="3"/>
     </row>
-    <row r="180" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -12074,7 +12088,7 @@
       <c r="BI180" s="3"/>
       <c r="BJ180" s="3"/>
     </row>
-    <row r="181" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -12136,7 +12150,7 @@
       <c r="BI181" s="3"/>
       <c r="BJ181" s="3"/>
     </row>
-    <row r="182" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -12198,7 +12212,7 @@
       <c r="BI182" s="3"/>
       <c r="BJ182" s="3"/>
     </row>
-    <row r="183" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -12260,7 +12274,7 @@
       <c r="BI183" s="3"/>
       <c r="BJ183" s="3"/>
     </row>
-    <row r="184" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -12322,7 +12336,7 @@
       <c r="BI184" s="3"/>
       <c r="BJ184" s="3"/>
     </row>
-    <row r="185" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -12384,7 +12398,7 @@
       <c r="BI185" s="3"/>
       <c r="BJ185" s="3"/>
     </row>
-    <row r="186" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -12446,7 +12460,7 @@
       <c r="BI186" s="3"/>
       <c r="BJ186" s="3"/>
     </row>
-    <row r="187" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -12508,7 +12522,7 @@
       <c r="BI187" s="3"/>
       <c r="BJ187" s="3"/>
     </row>
-    <row r="188" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -12570,7 +12584,7 @@
       <c r="BI188" s="3"/>
       <c r="BJ188" s="3"/>
     </row>
-    <row r="189" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -12632,7 +12646,7 @@
       <c r="BI189" s="3"/>
       <c r="BJ189" s="3"/>
     </row>
-    <row r="190" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -12694,7 +12708,7 @@
       <c r="BI190" s="3"/>
       <c r="BJ190" s="3"/>
     </row>
-    <row r="191" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -12756,7 +12770,7 @@
       <c r="BI191" s="3"/>
       <c r="BJ191" s="3"/>
     </row>
-    <row r="192" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -12818,7 +12832,7 @@
       <c r="BI192" s="3"/>
       <c r="BJ192" s="3"/>
     </row>
-    <row r="193" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -12880,7 +12894,7 @@
       <c r="BI193" s="3"/>
       <c r="BJ193" s="3"/>
     </row>
-    <row r="194" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -12942,7 +12956,7 @@
       <c r="BI194" s="3"/>
       <c r="BJ194" s="3"/>
     </row>
-    <row r="195" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -13004,7 +13018,7 @@
       <c r="BI195" s="3"/>
       <c r="BJ195" s="3"/>
     </row>
-    <row r="196" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -13066,7 +13080,7 @@
       <c r="BI196" s="3"/>
       <c r="BJ196" s="3"/>
     </row>
-    <row r="197" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -13128,7 +13142,7 @@
       <c r="BI197" s="3"/>
       <c r="BJ197" s="3"/>
     </row>
-    <row r="198" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -13190,7 +13204,7 @@
       <c r="BI198" s="3"/>
       <c r="BJ198" s="3"/>
     </row>
-    <row r="199" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -13252,7 +13266,7 @@
       <c r="BI199" s="3"/>
       <c r="BJ199" s="3"/>
     </row>
-    <row r="200" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -13314,7 +13328,7 @@
       <c r="BI200" s="3"/>
       <c r="BJ200" s="3"/>
     </row>
-    <row r="201" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -13376,7 +13390,7 @@
       <c r="BI201" s="3"/>
       <c r="BJ201" s="3"/>
     </row>
-    <row r="202" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -13438,7 +13452,7 @@
       <c r="BI202" s="3"/>
       <c r="BJ202" s="3"/>
     </row>
-    <row r="203" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -13500,7 +13514,7 @@
       <c r="BI203" s="3"/>
       <c r="BJ203" s="3"/>
     </row>
-    <row r="204" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -13562,7 +13576,7 @@
       <c r="BI204" s="3"/>
       <c r="BJ204" s="3"/>
     </row>
-    <row r="205" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -13624,7 +13638,7 @@
       <c r="BI205" s="3"/>
       <c r="BJ205" s="3"/>
     </row>
-    <row r="206" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -13686,7 +13700,7 @@
       <c r="BI206" s="3"/>
       <c r="BJ206" s="3"/>
     </row>
-    <row r="207" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -13748,7 +13762,7 @@
       <c r="BI207" s="3"/>
       <c r="BJ207" s="3"/>
     </row>
-    <row r="208" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -13810,7 +13824,7 @@
       <c r="BI208" s="3"/>
       <c r="BJ208" s="3"/>
     </row>
-    <row r="209" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -13872,7 +13886,7 @@
       <c r="BI209" s="3"/>
       <c r="BJ209" s="3"/>
     </row>
-    <row r="210" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -13934,7 +13948,7 @@
       <c r="BI210" s="3"/>
       <c r="BJ210" s="3"/>
     </row>
-    <row r="211" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -13996,7 +14010,7 @@
       <c r="BI211" s="3"/>
       <c r="BJ211" s="3"/>
     </row>
-    <row r="212" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -14058,7 +14072,7 @@
       <c r="BI212" s="3"/>
       <c r="BJ212" s="3"/>
     </row>
-    <row r="213" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -14120,7 +14134,7 @@
       <c r="BI213" s="3"/>
       <c r="BJ213" s="3"/>
     </row>
-    <row r="214" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -14182,7 +14196,7 @@
       <c r="BI214" s="3"/>
       <c r="BJ214" s="3"/>
     </row>
-    <row r="215" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -14244,7 +14258,7 @@
       <c r="BI215" s="3"/>
       <c r="BJ215" s="3"/>
     </row>
-    <row r="216" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -14306,7 +14320,7 @@
       <c r="BI216" s="3"/>
       <c r="BJ216" s="3"/>
     </row>
-    <row r="217" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -14368,7 +14382,7 @@
       <c r="BI217" s="3"/>
       <c r="BJ217" s="3"/>
     </row>
-    <row r="218" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -14430,7 +14444,7 @@
       <c r="BI218" s="3"/>
       <c r="BJ218" s="3"/>
     </row>
-    <row r="219" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -14492,7 +14506,7 @@
       <c r="BI219" s="3"/>
       <c r="BJ219" s="3"/>
     </row>
-    <row r="220" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -14554,7 +14568,7 @@
       <c r="BI220" s="3"/>
       <c r="BJ220" s="3"/>
     </row>
-    <row r="221" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -14616,7 +14630,7 @@
       <c r="BI221" s="3"/>
       <c r="BJ221" s="3"/>
     </row>
-    <row r="222" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -14678,7 +14692,7 @@
       <c r="BI222" s="3"/>
       <c r="BJ222" s="3"/>
     </row>
-    <row r="223" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -14740,7 +14754,7 @@
       <c r="BI223" s="3"/>
       <c r="BJ223" s="3"/>
     </row>
-    <row r="224" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -14802,7 +14816,7 @@
       <c r="BI224" s="3"/>
       <c r="BJ224" s="3"/>
     </row>
-    <row r="225" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -14864,7 +14878,7 @@
       <c r="BI225" s="3"/>
       <c r="BJ225" s="3"/>
     </row>
-    <row r="226" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -14926,7 +14940,7 @@
       <c r="BI226" s="3"/>
       <c r="BJ226" s="3"/>
     </row>
-    <row r="227" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -14988,7 +15002,7 @@
       <c r="BI227" s="3"/>
       <c r="BJ227" s="3"/>
     </row>
-    <row r="228" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -15050,7 +15064,7 @@
       <c r="BI228" s="3"/>
       <c r="BJ228" s="3"/>
     </row>
-    <row r="229" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -15112,7 +15126,7 @@
       <c r="BI229" s="3"/>
       <c r="BJ229" s="3"/>
     </row>
-    <row r="230" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -15174,7 +15188,7 @@
       <c r="BI230" s="3"/>
       <c r="BJ230" s="3"/>
     </row>
-    <row r="231" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -15236,7 +15250,7 @@
       <c r="BI231" s="3"/>
       <c r="BJ231" s="3"/>
     </row>
-    <row r="232" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -15298,7 +15312,7 @@
       <c r="BI232" s="3"/>
       <c r="BJ232" s="3"/>
     </row>
-    <row r="233" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -15360,7 +15374,7 @@
       <c r="BI233" s="3"/>
       <c r="BJ233" s="3"/>
     </row>
-    <row r="234" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -15422,7 +15436,7 @@
       <c r="BI234" s="3"/>
       <c r="BJ234" s="3"/>
     </row>
-    <row r="235" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -15484,7 +15498,7 @@
       <c r="BI235" s="3"/>
       <c r="BJ235" s="3"/>
     </row>
-    <row r="236" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -15546,7 +15560,7 @@
       <c r="BI236" s="3"/>
       <c r="BJ236" s="3"/>
     </row>
-    <row r="237" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -15608,7 +15622,7 @@
       <c r="BI237" s="3"/>
       <c r="BJ237" s="3"/>
     </row>
-    <row r="238" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -15670,7 +15684,7 @@
       <c r="BI238" s="3"/>
       <c r="BJ238" s="3"/>
     </row>
-    <row r="239" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -15732,7 +15746,7 @@
       <c r="BI239" s="3"/>
       <c r="BJ239" s="3"/>
     </row>
-    <row r="240" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -15794,7 +15808,7 @@
       <c r="BI240" s="3"/>
       <c r="BJ240" s="3"/>
     </row>
-    <row r="241" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -15856,7 +15870,7 @@
       <c r="BI241" s="3"/>
       <c r="BJ241" s="3"/>
     </row>
-    <row r="242" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -15918,7 +15932,7 @@
       <c r="BI242" s="3"/>
       <c r="BJ242" s="3"/>
     </row>
-    <row r="243" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -15980,7 +15994,7 @@
       <c r="BI243" s="3"/>
       <c r="BJ243" s="3"/>
     </row>
-    <row r="244" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -16042,7 +16056,7 @@
       <c r="BI244" s="3"/>
       <c r="BJ244" s="3"/>
     </row>
-    <row r="245" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -16104,7 +16118,7 @@
       <c r="BI245" s="3"/>
       <c r="BJ245" s="3"/>
     </row>
-    <row r="246" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -16166,7 +16180,7 @@
       <c r="BI246" s="3"/>
       <c r="BJ246" s="3"/>
     </row>
-    <row r="247" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -16228,7 +16242,7 @@
       <c r="BI247" s="3"/>
       <c r="BJ247" s="3"/>
     </row>
-    <row r="248" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -16290,7 +16304,7 @@
       <c r="BI248" s="3"/>
       <c r="BJ248" s="3"/>
     </row>
-    <row r="249" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -16352,7 +16366,7 @@
       <c r="BI249" s="3"/>
       <c r="BJ249" s="3"/>
     </row>
-    <row r="250" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -16414,7 +16428,7 @@
       <c r="BI250" s="3"/>
       <c r="BJ250" s="3"/>
     </row>
-    <row r="251" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -16476,7 +16490,7 @@
       <c r="BI251" s="3"/>
       <c r="BJ251" s="3"/>
     </row>
-    <row r="252" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -16538,7 +16552,7 @@
       <c r="BI252" s="3"/>
       <c r="BJ252" s="3"/>
     </row>
-    <row r="253" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -16600,7 +16614,7 @@
       <c r="BI253" s="3"/>
       <c r="BJ253" s="3"/>
     </row>
-    <row r="254" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -16662,7 +16676,7 @@
       <c r="BI254" s="3"/>
       <c r="BJ254" s="3"/>
     </row>
-    <row r="255" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -16724,7 +16738,7 @@
       <c r="BI255" s="3"/>
       <c r="BJ255" s="3"/>
     </row>
-    <row r="256" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -16786,7 +16800,7 @@
       <c r="BI256" s="3"/>
       <c r="BJ256" s="3"/>
     </row>
-    <row r="257" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -16848,7 +16862,7 @@
       <c r="BI257" s="3"/>
       <c r="BJ257" s="3"/>
     </row>
-    <row r="258" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -16910,7 +16924,7 @@
       <c r="BI258" s="3"/>
       <c r="BJ258" s="3"/>
     </row>
-    <row r="259" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -16972,7 +16986,7 @@
       <c r="BI259" s="3"/>
       <c r="BJ259" s="3"/>
     </row>
-    <row r="260" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -17034,7 +17048,7 @@
       <c r="BI260" s="3"/>
       <c r="BJ260" s="3"/>
     </row>
-    <row r="261" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -17096,7 +17110,7 @@
       <c r="BI261" s="3"/>
       <c r="BJ261" s="3"/>
     </row>
-    <row r="262" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -17158,7 +17172,7 @@
       <c r="BI262" s="3"/>
       <c r="BJ262" s="3"/>
     </row>
-    <row r="263" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -17220,7 +17234,7 @@
       <c r="BI263" s="3"/>
       <c r="BJ263" s="3"/>
     </row>
-    <row r="264" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -17282,7 +17296,7 @@
       <c r="BI264" s="3"/>
       <c r="BJ264" s="3"/>
     </row>
-    <row r="265" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -17344,7 +17358,7 @@
       <c r="BI265" s="3"/>
       <c r="BJ265" s="3"/>
     </row>
-    <row r="266" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -17406,7 +17420,7 @@
       <c r="BI266" s="3"/>
       <c r="BJ266" s="3"/>
     </row>
-    <row r="267" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -17468,7 +17482,7 @@
       <c r="BI267" s="3"/>
       <c r="BJ267" s="3"/>
     </row>
-    <row r="268" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -17530,7 +17544,7 @@
       <c r="BI268" s="3"/>
       <c r="BJ268" s="3"/>
     </row>
-    <row r="269" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -17592,7 +17606,7 @@
       <c r="BI269" s="3"/>
       <c r="BJ269" s="3"/>
     </row>
-    <row r="270" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -17654,7 +17668,7 @@
       <c r="BI270" s="3"/>
       <c r="BJ270" s="3"/>
     </row>
-    <row r="271" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -17716,7 +17730,7 @@
       <c r="BI271" s="3"/>
       <c r="BJ271" s="3"/>
     </row>
-    <row r="272" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -17778,7 +17792,7 @@
       <c r="BI272" s="3"/>
       <c r="BJ272" s="3"/>
     </row>
-    <row r="273" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -17840,7 +17854,7 @@
       <c r="BI273" s="3"/>
       <c r="BJ273" s="3"/>
     </row>
-    <row r="274" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -17902,7 +17916,7 @@
       <c r="BI274" s="3"/>
       <c r="BJ274" s="3"/>
     </row>
-    <row r="275" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -17964,7 +17978,7 @@
       <c r="BI275" s="3"/>
       <c r="BJ275" s="3"/>
     </row>
-    <row r="276" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -18026,7 +18040,7 @@
       <c r="BI276" s="3"/>
       <c r="BJ276" s="3"/>
     </row>
-    <row r="277" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -18088,7 +18102,7 @@
       <c r="BI277" s="3"/>
       <c r="BJ277" s="3"/>
     </row>
-    <row r="278" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -18150,7 +18164,7 @@
       <c r="BI278" s="3"/>
       <c r="BJ278" s="3"/>
     </row>
-    <row r="279" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -18212,7 +18226,7 @@
       <c r="BI279" s="3"/>
       <c r="BJ279" s="3"/>
     </row>
-    <row r="280" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -18274,7 +18288,7 @@
       <c r="BI280" s="3"/>
       <c r="BJ280" s="3"/>
     </row>
-    <row r="281" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -18336,7 +18350,7 @@
       <c r="BI281" s="3"/>
       <c r="BJ281" s="3"/>
     </row>
-    <row r="282" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -18398,7 +18412,7 @@
       <c r="BI282" s="3"/>
       <c r="BJ282" s="3"/>
     </row>
-    <row r="283" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -18460,7 +18474,7 @@
       <c r="BI283" s="3"/>
       <c r="BJ283" s="3"/>
     </row>
-    <row r="284" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -18522,7 +18536,7 @@
       <c r="BI284" s="3"/>
       <c r="BJ284" s="3"/>
     </row>
-    <row r="285" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -18584,7 +18598,7 @@
       <c r="BI285" s="3"/>
       <c r="BJ285" s="3"/>
     </row>
-    <row r="286" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -18646,7 +18660,7 @@
       <c r="BI286" s="3"/>
       <c r="BJ286" s="3"/>
     </row>
-    <row r="287" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -18708,7 +18722,7 @@
       <c r="BI287" s="3"/>
       <c r="BJ287" s="3"/>
     </row>
-    <row r="288" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -18770,7 +18784,7 @@
       <c r="BI288" s="3"/>
       <c r="BJ288" s="3"/>
     </row>
-    <row r="289" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -18832,7 +18846,7 @@
       <c r="BI289" s="3"/>
       <c r="BJ289" s="3"/>
     </row>
-    <row r="290" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -18894,7 +18908,7 @@
       <c r="BI290" s="3"/>
       <c r="BJ290" s="3"/>
     </row>
-    <row r="291" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -18956,7 +18970,7 @@
       <c r="BI291" s="3"/>
       <c r="BJ291" s="3"/>
     </row>
-    <row r="292" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -19018,7 +19032,7 @@
       <c r="BI292" s="3"/>
       <c r="BJ292" s="3"/>
     </row>
-    <row r="293" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -19080,7 +19094,7 @@
       <c r="BI293" s="3"/>
       <c r="BJ293" s="3"/>
     </row>
-    <row r="294" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -19142,7 +19156,7 @@
       <c r="BI294" s="3"/>
       <c r="BJ294" s="3"/>
     </row>
-    <row r="295" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -19204,7 +19218,7 @@
       <c r="BI295" s="3"/>
       <c r="BJ295" s="3"/>
     </row>
-    <row r="296" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -19266,7 +19280,7 @@
       <c r="BI296" s="3"/>
       <c r="BJ296" s="3"/>
     </row>
-    <row r="297" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -19328,7 +19342,7 @@
       <c r="BI297" s="3"/>
       <c r="BJ297" s="3"/>
     </row>
-    <row r="298" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -19390,7 +19404,7 @@
       <c r="BI298" s="3"/>
       <c r="BJ298" s="3"/>
     </row>
-    <row r="299" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -19452,7 +19466,7 @@
       <c r="BI299" s="3"/>
       <c r="BJ299" s="3"/>
     </row>
-    <row r="300" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -19514,7 +19528,7 @@
       <c r="BI300" s="3"/>
       <c r="BJ300" s="3"/>
     </row>
-    <row r="301" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -19576,7 +19590,7 @@
       <c r="BI301" s="3"/>
       <c r="BJ301" s="3"/>
     </row>
-    <row r="302" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -19638,7 +19652,7 @@
       <c r="BI302" s="3"/>
       <c r="BJ302" s="3"/>
     </row>
-    <row r="303" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -19700,7 +19714,7 @@
       <c r="BI303" s="3"/>
       <c r="BJ303" s="3"/>
     </row>
-    <row r="304" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -19762,7 +19776,7 @@
       <c r="BI304" s="3"/>
       <c r="BJ304" s="3"/>
     </row>
-    <row r="305" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -19824,7 +19838,7 @@
       <c r="BI305" s="3"/>
       <c r="BJ305" s="3"/>
     </row>
-    <row r="306" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -19886,7 +19900,7 @@
       <c r="BI306" s="3"/>
       <c r="BJ306" s="3"/>
     </row>
-    <row r="307" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -19948,7 +19962,7 @@
       <c r="BI307" s="3"/>
       <c r="BJ307" s="3"/>
     </row>
-    <row r="308" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -20010,7 +20024,7 @@
       <c r="BI308" s="3"/>
       <c r="BJ308" s="3"/>
     </row>
-    <row r="309" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -20072,7 +20086,7 @@
       <c r="BI309" s="3"/>
       <c r="BJ309" s="3"/>
     </row>
-    <row r="310" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -20134,7 +20148,7 @@
       <c r="BI310" s="3"/>
       <c r="BJ310" s="3"/>
     </row>
-    <row r="311" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -20196,7 +20210,7 @@
       <c r="BI311" s="3"/>
       <c r="BJ311" s="3"/>
     </row>
-    <row r="312" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -20258,7 +20272,7 @@
       <c r="BI312" s="3"/>
       <c r="BJ312" s="3"/>
     </row>
-    <row r="313" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -20320,7 +20334,7 @@
       <c r="BI313" s="3"/>
       <c r="BJ313" s="3"/>
     </row>
-    <row r="314" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -20382,7 +20396,7 @@
       <c r="BI314" s="3"/>
       <c r="BJ314" s="3"/>
     </row>
-    <row r="315" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -20444,7 +20458,7 @@
       <c r="BI315" s="3"/>
       <c r="BJ315" s="3"/>
     </row>
-    <row r="316" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -20506,7 +20520,7 @@
       <c r="BI316" s="3"/>
       <c r="BJ316" s="3"/>
     </row>
-    <row r="317" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -20568,7 +20582,7 @@
       <c r="BI317" s="3"/>
       <c r="BJ317" s="3"/>
     </row>
-    <row r="318" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -20630,7 +20644,7 @@
       <c r="BI318" s="3"/>
       <c r="BJ318" s="3"/>
     </row>
-    <row r="319" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -20692,7 +20706,7 @@
       <c r="BI319" s="3"/>
       <c r="BJ319" s="3"/>
     </row>
-    <row r="320" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -20754,7 +20768,7 @@
       <c r="BI320" s="3"/>
       <c r="BJ320" s="3"/>
     </row>
-    <row r="321" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -20816,7 +20830,7 @@
       <c r="BI321" s="3"/>
       <c r="BJ321" s="3"/>
     </row>
-    <row r="322" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -20878,7 +20892,7 @@
       <c r="BI322" s="3"/>
       <c r="BJ322" s="3"/>
     </row>
-    <row r="323" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -20940,7 +20954,7 @@
       <c r="BI323" s="3"/>
       <c r="BJ323" s="3"/>
     </row>
-    <row r="324" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -21002,7 +21016,7 @@
       <c r="BI324" s="3"/>
       <c r="BJ324" s="3"/>
     </row>
-    <row r="325" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -21064,7 +21078,7 @@
       <c r="BI325" s="3"/>
       <c r="BJ325" s="3"/>
     </row>
-    <row r="326" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -21126,7 +21140,7 @@
       <c r="BI326" s="3"/>
       <c r="BJ326" s="3"/>
     </row>
-    <row r="327" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -21188,7 +21202,7 @@
       <c r="BI327" s="3"/>
       <c r="BJ327" s="3"/>
     </row>
-    <row r="328" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -21250,7 +21264,7 @@
       <c r="BI328" s="3"/>
       <c r="BJ328" s="3"/>
     </row>
-    <row r="329" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -21312,7 +21326,7 @@
       <c r="BI329" s="3"/>
       <c r="BJ329" s="3"/>
     </row>
-    <row r="330" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -21374,7 +21388,7 @@
       <c r="BI330" s="3"/>
       <c r="BJ330" s="3"/>
     </row>
-    <row r="331" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -21436,7 +21450,7 @@
       <c r="BI331" s="3"/>
       <c r="BJ331" s="3"/>
     </row>
-    <row r="332" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -21498,7 +21512,7 @@
       <c r="BI332" s="3"/>
       <c r="BJ332" s="3"/>
     </row>
-    <row r="333" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -21560,7 +21574,7 @@
       <c r="BI333" s="3"/>
       <c r="BJ333" s="3"/>
     </row>
-    <row r="334" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -21622,7 +21636,7 @@
       <c r="BI334" s="3"/>
       <c r="BJ334" s="3"/>
     </row>
-    <row r="335" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -21684,7 +21698,7 @@
       <c r="BI335" s="3"/>
       <c r="BJ335" s="3"/>
     </row>
-    <row r="336" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -21746,7 +21760,7 @@
       <c r="BI336" s="3"/>
       <c r="BJ336" s="3"/>
     </row>
-    <row r="337" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -21808,7 +21822,7 @@
       <c r="BI337" s="3"/>
       <c r="BJ337" s="3"/>
     </row>
-    <row r="338" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -21870,7 +21884,7 @@
       <c r="BI338" s="3"/>
       <c r="BJ338" s="3"/>
     </row>
-    <row r="339" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -21932,7 +21946,7 @@
       <c r="BI339" s="3"/>
       <c r="BJ339" s="3"/>
     </row>
-    <row r="340" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -21994,7 +22008,7 @@
       <c r="BI340" s="3"/>
       <c r="BJ340" s="3"/>
     </row>
-    <row r="341" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -22056,7 +22070,7 @@
       <c r="BI341" s="3"/>
       <c r="BJ341" s="3"/>
     </row>
-    <row r="342" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -22118,7 +22132,7 @@
       <c r="BI342" s="3"/>
       <c r="BJ342" s="3"/>
     </row>
-    <row r="343" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -22180,7 +22194,7 @@
       <c r="BI343" s="3"/>
       <c r="BJ343" s="3"/>
     </row>
-    <row r="344" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -22242,7 +22256,7 @@
       <c r="BI344" s="3"/>
       <c r="BJ344" s="3"/>
     </row>
-    <row r="345" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -22304,7 +22318,7 @@
       <c r="BI345" s="3"/>
       <c r="BJ345" s="3"/>
     </row>
-    <row r="346" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -22366,7 +22380,7 @@
       <c r="BI346" s="3"/>
       <c r="BJ346" s="3"/>
     </row>
-    <row r="347" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -22428,7 +22442,7 @@
       <c r="BI347" s="3"/>
       <c r="BJ347" s="3"/>
     </row>
-    <row r="348" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -22490,7 +22504,7 @@
       <c r="BI348" s="3"/>
       <c r="BJ348" s="3"/>
     </row>
-    <row r="349" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -22552,7 +22566,7 @@
       <c r="BI349" s="3"/>
       <c r="BJ349" s="3"/>
     </row>
-    <row r="350" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -22614,7 +22628,7 @@
       <c r="BI350" s="3"/>
       <c r="BJ350" s="3"/>
     </row>
-    <row r="351" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -22676,7 +22690,7 @@
       <c r="BI351" s="3"/>
       <c r="BJ351" s="3"/>
     </row>
-    <row r="352" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -22738,7 +22752,7 @@
       <c r="BI352" s="3"/>
       <c r="BJ352" s="3"/>
     </row>
-    <row r="353" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -22800,7 +22814,7 @@
       <c r="BI353" s="3"/>
       <c r="BJ353" s="3"/>
     </row>
-    <row r="354" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -22862,7 +22876,7 @@
       <c r="BI354" s="3"/>
       <c r="BJ354" s="3"/>
     </row>
-    <row r="355" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -22924,7 +22938,7 @@
       <c r="BI355" s="3"/>
       <c r="BJ355" s="3"/>
     </row>
-    <row r="356" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -22986,7 +23000,7 @@
       <c r="BI356" s="3"/>
       <c r="BJ356" s="3"/>
     </row>
-    <row r="357" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -23048,7 +23062,7 @@
       <c r="BI357" s="3"/>
       <c r="BJ357" s="3"/>
     </row>
-    <row r="358" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -23110,7 +23124,7 @@
       <c r="BI358" s="3"/>
       <c r="BJ358" s="3"/>
     </row>
-    <row r="359" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -23172,7 +23186,7 @@
       <c r="BI359" s="3"/>
       <c r="BJ359" s="3"/>
     </row>
-    <row r="360" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -23234,7 +23248,7 @@
       <c r="BI360" s="3"/>
       <c r="BJ360" s="3"/>
     </row>
-    <row r="361" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -23296,7 +23310,7 @@
       <c r="BI361" s="3"/>
       <c r="BJ361" s="3"/>
     </row>
-    <row r="362" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -23358,7 +23372,7 @@
       <c r="BI362" s="3"/>
       <c r="BJ362" s="3"/>
     </row>
-    <row r="363" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -23420,7 +23434,7 @@
       <c r="BI363" s="3"/>
       <c r="BJ363" s="3"/>
     </row>
-    <row r="364" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -23482,7 +23496,7 @@
       <c r="BI364" s="3"/>
       <c r="BJ364" s="3"/>
     </row>
-    <row r="365" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -23544,7 +23558,7 @@
       <c r="BI365" s="3"/>
       <c r="BJ365" s="3"/>
     </row>
-    <row r="366" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -23606,7 +23620,7 @@
       <c r="BI366" s="3"/>
       <c r="BJ366" s="3"/>
     </row>
-    <row r="367" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -23668,7 +23682,7 @@
       <c r="BI367" s="3"/>
       <c r="BJ367" s="3"/>
     </row>
-    <row r="368" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -23730,7 +23744,7 @@
       <c r="BI368" s="3"/>
       <c r="BJ368" s="3"/>
     </row>
-    <row r="369" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -23792,7 +23806,7 @@
       <c r="BI369" s="3"/>
       <c r="BJ369" s="3"/>
     </row>
-    <row r="370" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -23854,7 +23868,7 @@
       <c r="BI370" s="3"/>
       <c r="BJ370" s="3"/>
     </row>
-    <row r="371" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -23916,7 +23930,7 @@
       <c r="BI371" s="3"/>
       <c r="BJ371" s="3"/>
     </row>
-    <row r="372" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -23978,7 +23992,7 @@
       <c r="BI372" s="3"/>
       <c r="BJ372" s="3"/>
     </row>
-    <row r="373" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -24040,7 +24054,7 @@
       <c r="BI373" s="3"/>
       <c r="BJ373" s="3"/>
     </row>
-    <row r="374" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -24102,7 +24116,7 @@
       <c r="BI374" s="3"/>
       <c r="BJ374" s="3"/>
     </row>
-    <row r="375" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -24164,7 +24178,7 @@
       <c r="BI375" s="3"/>
       <c r="BJ375" s="3"/>
     </row>
-    <row r="376" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -24226,7 +24240,7 @@
       <c r="BI376" s="3"/>
       <c r="BJ376" s="3"/>
     </row>
-    <row r="377" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -24288,7 +24302,7 @@
       <c r="BI377" s="3"/>
       <c r="BJ377" s="3"/>
     </row>
-    <row r="378" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -24350,7 +24364,7 @@
       <c r="BI378" s="3"/>
       <c r="BJ378" s="3"/>
     </row>
-    <row r="379" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -24412,7 +24426,7 @@
       <c r="BI379" s="3"/>
       <c r="BJ379" s="3"/>
     </row>
-    <row r="380" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -24474,7 +24488,7 @@
       <c r="BI380" s="3"/>
       <c r="BJ380" s="3"/>
     </row>
-    <row r="381" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -24536,7 +24550,7 @@
       <c r="BI381" s="3"/>
       <c r="BJ381" s="3"/>
     </row>
-    <row r="382" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -24598,7 +24612,7 @@
       <c r="BI382" s="3"/>
       <c r="BJ382" s="3"/>
     </row>
-    <row r="383" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -24660,7 +24674,7 @@
       <c r="BI383" s="3"/>
       <c r="BJ383" s="3"/>
     </row>
-    <row r="384" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -24722,7 +24736,7 @@
       <c r="BI384" s="3"/>
       <c r="BJ384" s="3"/>
     </row>
-    <row r="385" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -24784,7 +24798,7 @@
       <c r="BI385" s="3"/>
       <c r="BJ385" s="3"/>
     </row>
-    <row r="386" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -24846,7 +24860,7 @@
       <c r="BI386" s="3"/>
       <c r="BJ386" s="3"/>
     </row>
-    <row r="387" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -24908,7 +24922,7 @@
       <c r="BI387" s="3"/>
       <c r="BJ387" s="3"/>
     </row>
-    <row r="388" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -24970,7 +24984,7 @@
       <c r="BI388" s="3"/>
       <c r="BJ388" s="3"/>
     </row>
-    <row r="389" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -25032,7 +25046,7 @@
       <c r="BI389" s="3"/>
       <c r="BJ389" s="3"/>
     </row>
-    <row r="390" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -25094,7 +25108,7 @@
       <c r="BI390" s="3"/>
       <c r="BJ390" s="3"/>
     </row>
-    <row r="391" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -25156,7 +25170,7 @@
       <c r="BI391" s="3"/>
       <c r="BJ391" s="3"/>
     </row>
-    <row r="392" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -25218,7 +25232,7 @@
       <c r="BI392" s="3"/>
       <c r="BJ392" s="3"/>
     </row>
-    <row r="393" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -25280,7 +25294,7 @@
       <c r="BI393" s="3"/>
       <c r="BJ393" s="3"/>
     </row>
-    <row r="394" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -25342,7 +25356,7 @@
       <c r="BI394" s="3"/>
       <c r="BJ394" s="3"/>
     </row>
-    <row r="395" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -25404,7 +25418,7 @@
       <c r="BI395" s="3"/>
       <c r="BJ395" s="3"/>
     </row>
-    <row r="396" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -25466,7 +25480,7 @@
       <c r="BI396" s="3"/>
       <c r="BJ396" s="3"/>
     </row>
-    <row r="397" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -25528,7 +25542,7 @@
       <c r="BI397" s="3"/>
       <c r="BJ397" s="3"/>
     </row>
-    <row r="398" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -25590,7 +25604,7 @@
       <c r="BI398" s="3"/>
       <c r="BJ398" s="3"/>
     </row>
-    <row r="399" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -25652,7 +25666,7 @@
       <c r="BI399" s="3"/>
       <c r="BJ399" s="3"/>
     </row>
-    <row r="400" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -25714,7 +25728,7 @@
       <c r="BI400" s="3"/>
       <c r="BJ400" s="3"/>
     </row>
-    <row r="401" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -25776,7 +25790,7 @@
       <c r="BI401" s="3"/>
       <c r="BJ401" s="3"/>
     </row>
-    <row r="402" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -25838,7 +25852,7 @@
       <c r="BI402" s="3"/>
       <c r="BJ402" s="3"/>
     </row>
-    <row r="403" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -25900,7 +25914,7 @@
       <c r="BI403" s="3"/>
       <c r="BJ403" s="3"/>
     </row>
-    <row r="404" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -25962,7 +25976,7 @@
       <c r="BI404" s="3"/>
       <c r="BJ404" s="3"/>
     </row>
-    <row r="405" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -26024,7 +26038,7 @@
       <c r="BI405" s="3"/>
       <c r="BJ405" s="3"/>
     </row>
-    <row r="406" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -26086,7 +26100,7 @@
       <c r="BI406" s="3"/>
       <c r="BJ406" s="3"/>
     </row>
-    <row r="407" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -26148,7 +26162,7 @@
       <c r="BI407" s="3"/>
       <c r="BJ407" s="3"/>
     </row>
-    <row r="408" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -26210,7 +26224,7 @@
       <c r="BI408" s="3"/>
       <c r="BJ408" s="3"/>
     </row>
-    <row r="409" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -26272,7 +26286,7 @@
       <c r="BI409" s="3"/>
       <c r="BJ409" s="3"/>
     </row>
-    <row r="410" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -26334,7 +26348,7 @@
       <c r="BI410" s="3"/>
       <c r="BJ410" s="3"/>
     </row>
-    <row r="411" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -26396,7 +26410,7 @@
       <c r="BI411" s="3"/>
       <c r="BJ411" s="3"/>
     </row>
-    <row r="412" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -26458,7 +26472,7 @@
       <c r="BI412" s="3"/>
       <c r="BJ412" s="3"/>
     </row>
-    <row r="413" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -26520,7 +26534,7 @@
       <c r="BI413" s="3"/>
       <c r="BJ413" s="3"/>
     </row>
-    <row r="414" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -26582,7 +26596,7 @@
       <c r="BI414" s="3"/>
       <c r="BJ414" s="3"/>
     </row>
-    <row r="415" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -26644,7 +26658,7 @@
       <c r="BI415" s="3"/>
       <c r="BJ415" s="3"/>
     </row>
-    <row r="416" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -26706,7 +26720,7 @@
       <c r="BI416" s="3"/>
       <c r="BJ416" s="3"/>
     </row>
-    <row r="417" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -26768,7 +26782,7 @@
       <c r="BI417" s="3"/>
       <c r="BJ417" s="3"/>
     </row>
-    <row r="418" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -26830,7 +26844,7 @@
       <c r="BI418" s="3"/>
       <c r="BJ418" s="3"/>
     </row>
-    <row r="419" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -26892,7 +26906,7 @@
       <c r="BI419" s="3"/>
       <c r="BJ419" s="3"/>
     </row>
-    <row r="420" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -26954,7 +26968,7 @@
       <c r="BI420" s="3"/>
       <c r="BJ420" s="3"/>
     </row>
-    <row r="421" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -27016,7 +27030,7 @@
       <c r="BI421" s="3"/>
       <c r="BJ421" s="3"/>
     </row>
-    <row r="422" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -27078,7 +27092,7 @@
       <c r="BI422" s="3"/>
       <c r="BJ422" s="3"/>
     </row>
-    <row r="423" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -27140,7 +27154,7 @@
       <c r="BI423" s="3"/>
       <c r="BJ423" s="3"/>
     </row>
-    <row r="424" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -27202,7 +27216,7 @@
       <c r="BI424" s="3"/>
       <c r="BJ424" s="3"/>
     </row>
-    <row r="425" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -27264,7 +27278,7 @@
       <c r="BI425" s="3"/>
       <c r="BJ425" s="3"/>
     </row>
-    <row r="426" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -27326,7 +27340,7 @@
       <c r="BI426" s="3"/>
       <c r="BJ426" s="3"/>
     </row>
-    <row r="427" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -27388,7 +27402,7 @@
       <c r="BI427" s="3"/>
       <c r="BJ427" s="3"/>
     </row>
-    <row r="428" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -27450,7 +27464,7 @@
       <c r="BI428" s="3"/>
       <c r="BJ428" s="3"/>
     </row>
-    <row r="429" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -27512,7 +27526,7 @@
       <c r="BI429" s="3"/>
       <c r="BJ429" s="3"/>
     </row>
-    <row r="430" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -27574,7 +27588,7 @@
       <c r="BI430" s="3"/>
       <c r="BJ430" s="3"/>
     </row>
-    <row r="431" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -27636,7 +27650,7 @@
       <c r="BI431" s="3"/>
       <c r="BJ431" s="3"/>
     </row>
-    <row r="432" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -27698,7 +27712,7 @@
       <c r="BI432" s="3"/>
       <c r="BJ432" s="3"/>
     </row>
-    <row r="433" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -27760,7 +27774,7 @@
       <c r="BI433" s="3"/>
       <c r="BJ433" s="3"/>
     </row>
-    <row r="434" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -27822,7 +27836,7 @@
       <c r="BI434" s="3"/>
       <c r="BJ434" s="3"/>
     </row>
-    <row r="435" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -27884,7 +27898,7 @@
       <c r="BI435" s="3"/>
       <c r="BJ435" s="3"/>
     </row>
-    <row r="436" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -27946,7 +27960,7 @@
       <c r="BI436" s="3"/>
       <c r="BJ436" s="3"/>
     </row>
-    <row r="437" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -28008,7 +28022,7 @@
       <c r="BI437" s="3"/>
       <c r="BJ437" s="3"/>
     </row>
-    <row r="438" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -28070,7 +28084,7 @@
       <c r="BI438" s="3"/>
       <c r="BJ438" s="3"/>
     </row>
-    <row r="439" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -28132,7 +28146,7 @@
       <c r="BI439" s="3"/>
       <c r="BJ439" s="3"/>
     </row>
-    <row r="440" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -28194,7 +28208,7 @@
       <c r="BI440" s="3"/>
       <c r="BJ440" s="3"/>
     </row>
-    <row r="441" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -28256,7 +28270,7 @@
       <c r="BI441" s="3"/>
       <c r="BJ441" s="3"/>
     </row>
-    <row r="442" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -28318,7 +28332,7 @@
       <c r="BI442" s="3"/>
       <c r="BJ442" s="3"/>
     </row>
-    <row r="443" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -28380,7 +28394,7 @@
       <c r="BI443" s="3"/>
       <c r="BJ443" s="3"/>
     </row>
-    <row r="444" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -28442,7 +28456,7 @@
       <c r="BI444" s="3"/>
       <c r="BJ444" s="3"/>
     </row>
-    <row r="445" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -28504,7 +28518,7 @@
       <c r="BI445" s="3"/>
       <c r="BJ445" s="3"/>
     </row>
-    <row r="446" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -28566,7 +28580,7 @@
       <c r="BI446" s="3"/>
       <c r="BJ446" s="3"/>
     </row>
-    <row r="447" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -28628,7 +28642,7 @@
       <c r="BI447" s="3"/>
       <c r="BJ447" s="3"/>
     </row>
-    <row r="448" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -28690,7 +28704,7 @@
       <c r="BI448" s="3"/>
       <c r="BJ448" s="3"/>
     </row>
-    <row r="449" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -28752,7 +28766,7 @@
       <c r="BI449" s="3"/>
       <c r="BJ449" s="3"/>
     </row>
-    <row r="450" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -28814,7 +28828,7 @@
       <c r="BI450" s="3"/>
       <c r="BJ450" s="3"/>
     </row>
-    <row r="451" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -28876,7 +28890,7 @@
       <c r="BI451" s="3"/>
       <c r="BJ451" s="3"/>
     </row>
-    <row r="452" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -28938,7 +28952,7 @@
       <c r="BI452" s="3"/>
       <c r="BJ452" s="3"/>
     </row>
-    <row r="453" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -29000,7 +29014,7 @@
       <c r="BI453" s="3"/>
       <c r="BJ453" s="3"/>
     </row>
-    <row r="454" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -29062,7 +29076,7 @@
       <c r="BI454" s="3"/>
       <c r="BJ454" s="3"/>
     </row>
-    <row r="455" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -29124,7 +29138,7 @@
       <c r="BI455" s="3"/>
       <c r="BJ455" s="3"/>
     </row>
-    <row r="456" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -29186,7 +29200,7 @@
       <c r="BI456" s="3"/>
       <c r="BJ456" s="3"/>
     </row>
-    <row r="457" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -29248,7 +29262,7 @@
       <c r="BI457" s="3"/>
       <c r="BJ457" s="3"/>
     </row>
-    <row r="458" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -29310,7 +29324,7 @@
       <c r="BI458" s="3"/>
       <c r="BJ458" s="3"/>
     </row>
-    <row r="459" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -29372,7 +29386,7 @@
       <c r="BI459" s="3"/>
       <c r="BJ459" s="3"/>
     </row>
-    <row r="460" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -29434,7 +29448,7 @@
       <c r="BI460" s="3"/>
       <c r="BJ460" s="3"/>
     </row>
-    <row r="461" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -29496,7 +29510,7 @@
       <c r="BI461" s="3"/>
       <c r="BJ461" s="3"/>
     </row>
-    <row r="462" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -29558,7 +29572,7 @@
       <c r="BI462" s="3"/>
       <c r="BJ462" s="3"/>
     </row>
-    <row r="463" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -29620,7 +29634,7 @@
       <c r="BI463" s="3"/>
       <c r="BJ463" s="3"/>
     </row>
-    <row r="464" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -29682,7 +29696,7 @@
       <c r="BI464" s="3"/>
       <c r="BJ464" s="3"/>
     </row>
-    <row r="465" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -29744,7 +29758,7 @@
       <c r="BI465" s="3"/>
       <c r="BJ465" s="3"/>
     </row>
-    <row r="466" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -29806,7 +29820,7 @@
       <c r="BI466" s="3"/>
       <c r="BJ466" s="3"/>
     </row>
-    <row r="467" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -29868,7 +29882,7 @@
       <c r="BI467" s="3"/>
       <c r="BJ467" s="3"/>
     </row>
-    <row r="468" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -29930,7 +29944,7 @@
       <c r="BI468" s="3"/>
       <c r="BJ468" s="3"/>
     </row>
-    <row r="469" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -29992,7 +30006,7 @@
       <c r="BI469" s="3"/>
       <c r="BJ469" s="3"/>
     </row>
-    <row r="470" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -30054,7 +30068,7 @@
       <c r="BI470" s="3"/>
       <c r="BJ470" s="3"/>
     </row>
-    <row r="471" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -30116,7 +30130,7 @@
       <c r="BI471" s="3"/>
       <c r="BJ471" s="3"/>
     </row>
-    <row r="472" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -30178,7 +30192,7 @@
       <c r="BI472" s="3"/>
       <c r="BJ472" s="3"/>
     </row>
-    <row r="473" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -30240,7 +30254,7 @@
       <c r="BI473" s="3"/>
       <c r="BJ473" s="3"/>
     </row>
-    <row r="474" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -30302,7 +30316,7 @@
       <c r="BI474" s="3"/>
       <c r="BJ474" s="3"/>
     </row>
-    <row r="475" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -30364,7 +30378,7 @@
       <c r="BI475" s="3"/>
       <c r="BJ475" s="3"/>
     </row>
-    <row r="476" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -30426,7 +30440,7 @@
       <c r="BI476" s="3"/>
       <c r="BJ476" s="3"/>
     </row>
-    <row r="477" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -30488,7 +30502,7 @@
       <c r="BI477" s="3"/>
       <c r="BJ477" s="3"/>
     </row>
-    <row r="478" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -30550,7 +30564,7 @@
       <c r="BI478" s="3"/>
       <c r="BJ478" s="3"/>
     </row>
-    <row r="479" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -30612,7 +30626,7 @@
       <c r="BI479" s="3"/>
       <c r="BJ479" s="3"/>
     </row>
-    <row r="480" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -30674,7 +30688,7 @@
       <c r="BI480" s="3"/>
       <c r="BJ480" s="3"/>
     </row>
-    <row r="481" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -30736,7 +30750,7 @@
       <c r="BI481" s="3"/>
       <c r="BJ481" s="3"/>
     </row>
-    <row r="482" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -30798,7 +30812,7 @@
       <c r="BI482" s="3"/>
       <c r="BJ482" s="3"/>
     </row>
-    <row r="483" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -30860,7 +30874,7 @@
       <c r="BI483" s="3"/>
       <c r="BJ483" s="3"/>
     </row>
-    <row r="484" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -30922,7 +30936,7 @@
       <c r="BI484" s="3"/>
       <c r="BJ484" s="3"/>
     </row>
-    <row r="485" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -30984,7 +30998,7 @@
       <c r="BI485" s="3"/>
       <c r="BJ485" s="3"/>
     </row>
-    <row r="486" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -31046,7 +31060,7 @@
       <c r="BI486" s="3"/>
       <c r="BJ486" s="3"/>
     </row>
-    <row r="487" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -31108,7 +31122,7 @@
       <c r="BI487" s="3"/>
       <c r="BJ487" s="3"/>
     </row>
-    <row r="488" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -31170,7 +31184,7 @@
       <c r="BI488" s="3"/>
       <c r="BJ488" s="3"/>
     </row>
-    <row r="489" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -31232,7 +31246,7 @@
       <c r="BI489" s="3"/>
       <c r="BJ489" s="3"/>
     </row>
-    <row r="490" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -31294,7 +31308,7 @@
       <c r="BI490" s="3"/>
       <c r="BJ490" s="3"/>
     </row>
-    <row r="491" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -31356,7 +31370,7 @@
       <c r="BI491" s="3"/>
       <c r="BJ491" s="3"/>
     </row>
-    <row r="492" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -31418,7 +31432,7 @@
       <c r="BI492" s="3"/>
       <c r="BJ492" s="3"/>
     </row>
-    <row r="493" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -31480,7 +31494,7 @@
       <c r="BI493" s="3"/>
       <c r="BJ493" s="3"/>
     </row>
-    <row r="494" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -31542,7 +31556,7 @@
       <c r="BI494" s="3"/>
       <c r="BJ494" s="3"/>
     </row>
-    <row r="495" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -31604,7 +31618,7 @@
       <c r="BI495" s="3"/>
       <c r="BJ495" s="3"/>
     </row>
-    <row r="496" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -31666,7 +31680,7 @@
       <c r="BI496" s="3"/>
       <c r="BJ496" s="3"/>
     </row>
-    <row r="497" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -31728,7 +31742,7 @@
       <c r="BI497" s="3"/>
       <c r="BJ497" s="3"/>
     </row>
-    <row r="498" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -31790,7 +31804,7 @@
       <c r="BI498" s="3"/>
       <c r="BJ498" s="3"/>
     </row>
-    <row r="499" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -31852,7 +31866,7 @@
       <c r="BI499" s="3"/>
       <c r="BJ499" s="3"/>
     </row>
-    <row r="500" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -31914,7 +31928,7 @@
       <c r="BI500" s="3"/>
       <c r="BJ500" s="3"/>
     </row>
-    <row r="501" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -31976,7 +31990,7 @@
       <c r="BI501" s="3"/>
       <c r="BJ501" s="3"/>
     </row>
-    <row r="502" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -32038,7 +32052,7 @@
       <c r="BI502" s="3"/>
       <c r="BJ502" s="3"/>
     </row>
-    <row r="503" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -32100,7 +32114,7 @@
       <c r="BI503" s="3"/>
       <c r="BJ503" s="3"/>
     </row>
-    <row r="504" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -32162,7 +32176,7 @@
       <c r="BI504" s="3"/>
       <c r="BJ504" s="3"/>
     </row>
-    <row r="505" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -32224,7 +32238,7 @@
       <c r="BI505" s="3"/>
       <c r="BJ505" s="3"/>
     </row>
-    <row r="506" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -32286,7 +32300,7 @@
       <c r="BI506" s="3"/>
       <c r="BJ506" s="3"/>
     </row>
-    <row r="507" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -32348,7 +32362,7 @@
       <c r="BI507" s="3"/>
       <c r="BJ507" s="3"/>
     </row>
-    <row r="508" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -32410,7 +32424,7 @@
       <c r="BI508" s="3"/>
       <c r="BJ508" s="3"/>
     </row>
-    <row r="509" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -32472,7 +32486,7 @@
       <c r="BI509" s="3"/>
       <c r="BJ509" s="3"/>
     </row>
-    <row r="510" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -32534,7 +32548,7 @@
       <c r="BI510" s="3"/>
       <c r="BJ510" s="3"/>
     </row>
-    <row r="511" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -32596,7 +32610,7 @@
       <c r="BI511" s="3"/>
       <c r="BJ511" s="3"/>
     </row>
-    <row r="512" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -32658,7 +32672,7 @@
       <c r="BI512" s="3"/>
       <c r="BJ512" s="3"/>
     </row>
-    <row r="513" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -32720,7 +32734,7 @@
       <c r="BI513" s="3"/>
       <c r="BJ513" s="3"/>
     </row>
-    <row r="514" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -32782,7 +32796,7 @@
       <c r="BI514" s="3"/>
       <c r="BJ514" s="3"/>
     </row>
-    <row r="515" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -32844,7 +32858,7 @@
       <c r="BI515" s="3"/>
       <c r="BJ515" s="3"/>
     </row>
-    <row r="516" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -32906,7 +32920,7 @@
       <c r="BI516" s="3"/>
       <c r="BJ516" s="3"/>
     </row>
-    <row r="517" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -32968,7 +32982,7 @@
       <c r="BI517" s="3"/>
       <c r="BJ517" s="3"/>
     </row>
-    <row r="518" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -33030,7 +33044,7 @@
       <c r="BI518" s="3"/>
       <c r="BJ518" s="3"/>
     </row>
-    <row r="519" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -33092,7 +33106,7 @@
       <c r="BI519" s="3"/>
       <c r="BJ519" s="3"/>
     </row>
-    <row r="520" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -33154,7 +33168,7 @@
       <c r="BI520" s="3"/>
       <c r="BJ520" s="3"/>
     </row>
-    <row r="521" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -33216,7 +33230,7 @@
       <c r="BI521" s="3"/>
       <c r="BJ521" s="3"/>
     </row>
-    <row r="522" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -33278,7 +33292,7 @@
       <c r="BI522" s="3"/>
       <c r="BJ522" s="3"/>
     </row>
-    <row r="523" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -33340,7 +33354,7 @@
       <c r="BI523" s="3"/>
       <c r="BJ523" s="3"/>
     </row>
-    <row r="524" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -33402,7 +33416,7 @@
       <c r="BI524" s="3"/>
       <c r="BJ524" s="3"/>
     </row>
-    <row r="525" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -33464,7 +33478,7 @@
       <c r="BI525" s="3"/>
       <c r="BJ525" s="3"/>
     </row>
-    <row r="526" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -33526,7 +33540,7 @@
       <c r="BI526" s="3"/>
       <c r="BJ526" s="3"/>
     </row>
-    <row r="527" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -33588,7 +33602,7 @@
       <c r="BI527" s="3"/>
       <c r="BJ527" s="3"/>
     </row>
-    <row r="528" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -33650,7 +33664,7 @@
       <c r="BI528" s="3"/>
       <c r="BJ528" s="3"/>
     </row>
-    <row r="529" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -33712,7 +33726,7 @@
       <c r="BI529" s="3"/>
       <c r="BJ529" s="3"/>
     </row>
-    <row r="530" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -33774,7 +33788,7 @@
       <c r="BI530" s="3"/>
       <c r="BJ530" s="3"/>
     </row>
-    <row r="531" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -33836,7 +33850,7 @@
       <c r="BI531" s="3"/>
       <c r="BJ531" s="3"/>
     </row>
-    <row r="532" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -33898,7 +33912,7 @@
       <c r="BI532" s="3"/>
       <c r="BJ532" s="3"/>
     </row>
-    <row r="533" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -33960,7 +33974,7 @@
       <c r="BI533" s="3"/>
       <c r="BJ533" s="3"/>
     </row>
-    <row r="534" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -34022,7 +34036,7 @@
       <c r="BI534" s="3"/>
       <c r="BJ534" s="3"/>
     </row>
-    <row r="535" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -34084,7 +34098,7 @@
       <c r="BI535" s="3"/>
       <c r="BJ535" s="3"/>
     </row>
-    <row r="536" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -34146,7 +34160,7 @@
       <c r="BI536" s="3"/>
       <c r="BJ536" s="3"/>
     </row>
-    <row r="537" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -34208,7 +34222,7 @@
       <c r="BI537" s="3"/>
       <c r="BJ537" s="3"/>
     </row>
-    <row r="538" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -34270,7 +34284,7 @@
       <c r="BI538" s="3"/>
       <c r="BJ538" s="3"/>
     </row>
-    <row r="539" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -34332,7 +34346,7 @@
       <c r="BI539" s="3"/>
       <c r="BJ539" s="3"/>
     </row>
-    <row r="540" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -34394,7 +34408,7 @@
       <c r="BI540" s="3"/>
       <c r="BJ540" s="3"/>
     </row>
-    <row r="541" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
@@ -34456,7 +34470,7 @@
       <c r="BI541" s="3"/>
       <c r="BJ541" s="3"/>
     </row>
-    <row r="542" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
@@ -34518,7 +34532,7 @@
       <c r="BI542" s="3"/>
       <c r="BJ542" s="3"/>
     </row>
-    <row r="543" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
@@ -34580,7 +34594,7 @@
       <c r="BI543" s="3"/>
       <c r="BJ543" s="3"/>
     </row>
-    <row r="544" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
@@ -34642,7 +34656,7 @@
       <c r="BI544" s="3"/>
       <c r="BJ544" s="3"/>
     </row>
-    <row r="545" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
@@ -34704,7 +34718,7 @@
       <c r="BI545" s="3"/>
       <c r="BJ545" s="3"/>
     </row>
-    <row r="546" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
@@ -34766,7 +34780,7 @@
       <c r="BI546" s="3"/>
       <c r="BJ546" s="3"/>
     </row>
-    <row r="547" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
@@ -34828,7 +34842,7 @@
       <c r="BI547" s="3"/>
       <c r="BJ547" s="3"/>
     </row>
-    <row r="548" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
@@ -34890,7 +34904,7 @@
       <c r="BI548" s="3"/>
       <c r="BJ548" s="3"/>
     </row>
-    <row r="549" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
@@ -34952,7 +34966,7 @@
       <c r="BI549" s="3"/>
       <c r="BJ549" s="3"/>
     </row>
-    <row r="550" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
@@ -35014,7 +35028,7 @@
       <c r="BI550" s="3"/>
       <c r="BJ550" s="3"/>
     </row>
-    <row r="551" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
@@ -35076,7 +35090,7 @@
       <c r="BI551" s="3"/>
       <c r="BJ551" s="3"/>
     </row>
-    <row r="552" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
@@ -35138,7 +35152,7 @@
       <c r="BI552" s="3"/>
       <c r="BJ552" s="3"/>
     </row>
-    <row r="553" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
@@ -35200,7 +35214,7 @@
       <c r="BI553" s="3"/>
       <c r="BJ553" s="3"/>
     </row>
-    <row r="554" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
@@ -35262,7 +35276,7 @@
       <c r="BI554" s="3"/>
       <c r="BJ554" s="3"/>
     </row>
-    <row r="555" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
@@ -35324,7 +35338,7 @@
       <c r="BI555" s="3"/>
       <c r="BJ555" s="3"/>
     </row>
-    <row r="556" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
@@ -35386,7 +35400,7 @@
       <c r="BI556" s="3"/>
       <c r="BJ556" s="3"/>
     </row>
-    <row r="557" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
@@ -35448,7 +35462,7 @@
       <c r="BI557" s="3"/>
       <c r="BJ557" s="3"/>
     </row>
-    <row r="558" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
@@ -35510,7 +35524,7 @@
       <c r="BI558" s="3"/>
       <c r="BJ558" s="3"/>
     </row>
-    <row r="559" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
@@ -35572,7 +35586,7 @@
       <c r="BI559" s="3"/>
       <c r="BJ559" s="3"/>
     </row>
-    <row r="560" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
@@ -35634,7 +35648,7 @@
       <c r="BI560" s="3"/>
       <c r="BJ560" s="3"/>
     </row>
-    <row r="561" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
@@ -35696,7 +35710,7 @@
       <c r="BI561" s="3"/>
       <c r="BJ561" s="3"/>
     </row>
-    <row r="562" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
@@ -35758,7 +35772,7 @@
       <c r="BI562" s="3"/>
       <c r="BJ562" s="3"/>
     </row>
-    <row r="563" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
@@ -35820,7 +35834,7 @@
       <c r="BI563" s="3"/>
       <c r="BJ563" s="3"/>
     </row>
-    <row r="564" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
@@ -35882,7 +35896,7 @@
       <c r="BI564" s="3"/>
       <c r="BJ564" s="3"/>
     </row>
-    <row r="565" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
@@ -35944,7 +35958,7 @@
       <c r="BI565" s="3"/>
       <c r="BJ565" s="3"/>
     </row>
-    <row r="566" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
@@ -36006,7 +36020,7 @@
       <c r="BI566" s="3"/>
       <c r="BJ566" s="3"/>
     </row>
-    <row r="567" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
@@ -36068,7 +36082,7 @@
       <c r="BI567" s="3"/>
       <c r="BJ567" s="3"/>
     </row>
-    <row r="568" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
@@ -36130,7 +36144,7 @@
       <c r="BI568" s="3"/>
       <c r="BJ568" s="3"/>
     </row>
-    <row r="569" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
@@ -36192,7 +36206,7 @@
       <c r="BI569" s="3"/>
       <c r="BJ569" s="3"/>
     </row>
-    <row r="570" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
@@ -36254,7 +36268,7 @@
       <c r="BI570" s="3"/>
       <c r="BJ570" s="3"/>
     </row>
-    <row r="571" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
@@ -36316,7 +36330,7 @@
       <c r="BI571" s="3"/>
       <c r="BJ571" s="3"/>
     </row>
-    <row r="572" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
@@ -36378,7 +36392,7 @@
       <c r="BI572" s="3"/>
       <c r="BJ572" s="3"/>
     </row>
-    <row r="573" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
@@ -36440,7 +36454,7 @@
       <c r="BI573" s="3"/>
       <c r="BJ573" s="3"/>
     </row>
-    <row r="574" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
@@ -36502,7 +36516,7 @@
       <c r="BI574" s="3"/>
       <c r="BJ574" s="3"/>
     </row>
-    <row r="575" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
@@ -36564,7 +36578,7 @@
       <c r="BI575" s="3"/>
       <c r="BJ575" s="3"/>
     </row>
-    <row r="576" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
@@ -36626,7 +36640,7 @@
       <c r="BI576" s="3"/>
       <c r="BJ576" s="3"/>
     </row>
-    <row r="577" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
@@ -36688,7 +36702,7 @@
       <c r="BI577" s="3"/>
       <c r="BJ577" s="3"/>
     </row>
-    <row r="578" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
@@ -36750,7 +36764,7 @@
       <c r="BI578" s="3"/>
       <c r="BJ578" s="3"/>
     </row>
-    <row r="579" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
@@ -36812,7 +36826,7 @@
       <c r="BI579" s="3"/>
       <c r="BJ579" s="3"/>
     </row>
-    <row r="580" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
@@ -36874,7 +36888,7 @@
       <c r="BI580" s="3"/>
       <c r="BJ580" s="3"/>
     </row>
-    <row r="581" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
@@ -36936,7 +36950,7 @@
       <c r="BI581" s="3"/>
       <c r="BJ581" s="3"/>
     </row>
-    <row r="582" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
@@ -36998,7 +37012,7 @@
       <c r="BI582" s="3"/>
       <c r="BJ582" s="3"/>
     </row>
-    <row r="583" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
@@ -37060,7 +37074,7 @@
       <c r="BI583" s="3"/>
       <c r="BJ583" s="3"/>
     </row>
-    <row r="584" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
@@ -37122,7 +37136,7 @@
       <c r="BI584" s="3"/>
       <c r="BJ584" s="3"/>
     </row>
-    <row r="585" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
@@ -37184,7 +37198,7 @@
       <c r="BI585" s="3"/>
       <c r="BJ585" s="3"/>
     </row>
-    <row r="586" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
@@ -37246,7 +37260,7 @@
       <c r="BI586" s="3"/>
       <c r="BJ586" s="3"/>
     </row>
-    <row r="587" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
@@ -37308,7 +37322,7 @@
       <c r="BI587" s="3"/>
       <c r="BJ587" s="3"/>
     </row>
-    <row r="588" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
@@ -37370,7 +37384,7 @@
       <c r="BI588" s="3"/>
       <c r="BJ588" s="3"/>
     </row>
-    <row r="589" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
@@ -37432,7 +37446,7 @@
       <c r="BI589" s="3"/>
       <c r="BJ589" s="3"/>
     </row>
-    <row r="590" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
@@ -37494,7 +37508,7 @@
       <c r="BI590" s="3"/>
       <c r="BJ590" s="3"/>
     </row>
-    <row r="591" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
@@ -37556,7 +37570,7 @@
       <c r="BI591" s="3"/>
       <c r="BJ591" s="3"/>
     </row>
-    <row r="592" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
@@ -37618,7 +37632,7 @@
       <c r="BI592" s="3"/>
       <c r="BJ592" s="3"/>
     </row>
-    <row r="593" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
@@ -37680,7 +37694,7 @@
       <c r="BI593" s="3"/>
       <c r="BJ593" s="3"/>
     </row>
-    <row r="594" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
@@ -37742,7 +37756,7 @@
       <c r="BI594" s="3"/>
       <c r="BJ594" s="3"/>
     </row>
-    <row r="595" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
@@ -37804,7 +37818,7 @@
       <c r="BI595" s="3"/>
       <c r="BJ595" s="3"/>
     </row>
-    <row r="596" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
@@ -37866,7 +37880,7 @@
       <c r="BI596" s="3"/>
       <c r="BJ596" s="3"/>
     </row>
-    <row r="597" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
@@ -37928,7 +37942,7 @@
       <c r="BI597" s="3"/>
       <c r="BJ597" s="3"/>
     </row>
-    <row r="598" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
@@ -37990,7 +38004,7 @@
       <c r="BI598" s="3"/>
       <c r="BJ598" s="3"/>
     </row>
-    <row r="599" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
@@ -38052,7 +38066,7 @@
       <c r="BI599" s="3"/>
       <c r="BJ599" s="3"/>
     </row>
-    <row r="600" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
@@ -38114,7 +38128,7 @@
       <c r="BI600" s="3"/>
       <c r="BJ600" s="3"/>
     </row>
-    <row r="601" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
@@ -38176,7 +38190,7 @@
       <c r="BI601" s="3"/>
       <c r="BJ601" s="3"/>
     </row>
-    <row r="602" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
@@ -38238,7 +38252,7 @@
       <c r="BI602" s="3"/>
       <c r="BJ602" s="3"/>
     </row>
-    <row r="603" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
@@ -38300,7 +38314,7 @@
       <c r="BI603" s="3"/>
       <c r="BJ603" s="3"/>
     </row>
-    <row r="604" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
@@ -38362,7 +38376,7 @@
       <c r="BI604" s="3"/>
       <c r="BJ604" s="3"/>
     </row>
-    <row r="605" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
@@ -38424,7 +38438,7 @@
       <c r="BI605" s="3"/>
       <c r="BJ605" s="3"/>
     </row>
-    <row r="606" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
@@ -38486,7 +38500,7 @@
       <c r="BI606" s="3"/>
       <c r="BJ606" s="3"/>
     </row>
-    <row r="607" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
@@ -38548,7 +38562,7 @@
       <c r="BI607" s="3"/>
       <c r="BJ607" s="3"/>
     </row>
-    <row r="608" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
@@ -38610,7 +38624,7 @@
       <c r="BI608" s="3"/>
       <c r="BJ608" s="3"/>
     </row>
-    <row r="609" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
@@ -38672,7 +38686,7 @@
       <c r="BI609" s="3"/>
       <c r="BJ609" s="3"/>
     </row>
-    <row r="610" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
@@ -38734,7 +38748,7 @@
       <c r="BI610" s="3"/>
       <c r="BJ610" s="3"/>
     </row>
-    <row r="611" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
@@ -38796,7 +38810,7 @@
       <c r="BI611" s="3"/>
       <c r="BJ611" s="3"/>
     </row>
-    <row r="612" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
@@ -38858,7 +38872,7 @@
       <c r="BI612" s="3"/>
       <c r="BJ612" s="3"/>
     </row>
-    <row r="613" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
@@ -38920,7 +38934,7 @@
       <c r="BI613" s="3"/>
       <c r="BJ613" s="3"/>
     </row>
-    <row r="614" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
@@ -38982,7 +38996,7 @@
       <c r="BI614" s="3"/>
       <c r="BJ614" s="3"/>
     </row>
-    <row r="615" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
@@ -39044,7 +39058,7 @@
       <c r="BI615" s="3"/>
       <c r="BJ615" s="3"/>
     </row>
-    <row r="616" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
@@ -39106,7 +39120,7 @@
       <c r="BI616" s="3"/>
       <c r="BJ616" s="3"/>
     </row>
-    <row r="617" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
@@ -39168,7 +39182,7 @@
       <c r="BI617" s="3"/>
       <c r="BJ617" s="3"/>
     </row>
-    <row r="618" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
@@ -39230,7 +39244,7 @@
       <c r="BI618" s="3"/>
       <c r="BJ618" s="3"/>
     </row>
-    <row r="619" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
@@ -39292,7 +39306,7 @@
       <c r="BI619" s="3"/>
       <c r="BJ619" s="3"/>
     </row>
-    <row r="620" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
@@ -39354,7 +39368,7 @@
       <c r="BI620" s="3"/>
       <c r="BJ620" s="3"/>
     </row>
-    <row r="621" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
@@ -39416,7 +39430,7 @@
       <c r="BI621" s="3"/>
       <c r="BJ621" s="3"/>
     </row>
-    <row r="622" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
@@ -39478,7 +39492,7 @@
       <c r="BI622" s="3"/>
       <c r="BJ622" s="3"/>
     </row>
-    <row r="623" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
@@ -39540,7 +39554,7 @@
       <c r="BI623" s="3"/>
       <c r="BJ623" s="3"/>
     </row>
-    <row r="624" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
@@ -39602,7 +39616,7 @@
       <c r="BI624" s="3"/>
       <c r="BJ624" s="3"/>
     </row>
-    <row r="625" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
@@ -39664,7 +39678,7 @@
       <c r="BI625" s="3"/>
       <c r="BJ625" s="3"/>
     </row>
-    <row r="626" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
@@ -39726,7 +39740,7 @@
       <c r="BI626" s="3"/>
       <c r="BJ626" s="3"/>
     </row>
-    <row r="627" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
@@ -39788,7 +39802,7 @@
       <c r="BI627" s="3"/>
       <c r="BJ627" s="3"/>
     </row>
-    <row r="628" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
@@ -39850,7 +39864,7 @@
       <c r="BI628" s="3"/>
       <c r="BJ628" s="3"/>
     </row>
-    <row r="629" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
@@ -39912,7 +39926,7 @@
       <c r="BI629" s="3"/>
       <c r="BJ629" s="3"/>
     </row>
-    <row r="630" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
@@ -39974,7 +39988,7 @@
       <c r="BI630" s="3"/>
       <c r="BJ630" s="3"/>
     </row>
-    <row r="631" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
@@ -40036,7 +40050,7 @@
       <c r="BI631" s="3"/>
       <c r="BJ631" s="3"/>
     </row>
-    <row r="632" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
@@ -40098,7 +40112,7 @@
       <c r="BI632" s="3"/>
       <c r="BJ632" s="3"/>
     </row>
-    <row r="633" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
@@ -40160,7 +40174,7 @@
       <c r="BI633" s="3"/>
       <c r="BJ633" s="3"/>
     </row>
-    <row r="634" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
@@ -40222,7 +40236,7 @@
       <c r="BI634" s="3"/>
       <c r="BJ634" s="3"/>
     </row>
-    <row r="635" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
@@ -40284,7 +40298,7 @@
       <c r="BI635" s="3"/>
       <c r="BJ635" s="3"/>
     </row>
-    <row r="636" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
@@ -40346,7 +40360,7 @@
       <c r="BI636" s="3"/>
       <c r="BJ636" s="3"/>
     </row>
-    <row r="637" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
@@ -40408,7 +40422,7 @@
       <c r="BI637" s="3"/>
       <c r="BJ637" s="3"/>
     </row>
-    <row r="638" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
@@ -40470,7 +40484,7 @@
       <c r="BI638" s="3"/>
       <c r="BJ638" s="3"/>
     </row>
-    <row r="639" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
@@ -40532,7 +40546,7 @@
       <c r="BI639" s="3"/>
       <c r="BJ639" s="3"/>
     </row>
-    <row r="640" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
@@ -40594,7 +40608,7 @@
       <c r="BI640" s="3"/>
       <c r="BJ640" s="3"/>
     </row>
-    <row r="641" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
@@ -40656,7 +40670,7 @@
       <c r="BI641" s="3"/>
       <c r="BJ641" s="3"/>
     </row>
-    <row r="642" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
@@ -40718,7 +40732,7 @@
       <c r="BI642" s="3"/>
       <c r="BJ642" s="3"/>
     </row>
-    <row r="643" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
@@ -40780,7 +40794,7 @@
       <c r="BI643" s="3"/>
       <c r="BJ643" s="3"/>
     </row>
-    <row r="644" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
@@ -40842,7 +40856,7 @@
       <c r="BI644" s="3"/>
       <c r="BJ644" s="3"/>
     </row>
-    <row r="645" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
@@ -40904,7 +40918,7 @@
       <c r="BI645" s="3"/>
       <c r="BJ645" s="3"/>
     </row>
-    <row r="646" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
@@ -40966,7 +40980,7 @@
       <c r="BI646" s="3"/>
       <c r="BJ646" s="3"/>
     </row>
-    <row r="647" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
@@ -41028,7 +41042,7 @@
       <c r="BI647" s="3"/>
       <c r="BJ647" s="3"/>
     </row>
-    <row r="648" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
@@ -41090,7 +41104,7 @@
       <c r="BI648" s="3"/>
       <c r="BJ648" s="3"/>
     </row>
-    <row r="649" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
@@ -41152,7 +41166,7 @@
       <c r="BI649" s="3"/>
       <c r="BJ649" s="3"/>
     </row>
-    <row r="650" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
@@ -41214,7 +41228,7 @@
       <c r="BI650" s="3"/>
       <c r="BJ650" s="3"/>
     </row>
-    <row r="651" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
@@ -41276,7 +41290,7 @@
       <c r="BI651" s="3"/>
       <c r="BJ651" s="3"/>
     </row>
-    <row r="652" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
@@ -41338,7 +41352,7 @@
       <c r="BI652" s="3"/>
       <c r="BJ652" s="3"/>
     </row>
-    <row r="653" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
@@ -41400,7 +41414,7 @@
       <c r="BI653" s="3"/>
       <c r="BJ653" s="3"/>
     </row>
-    <row r="654" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
@@ -41462,7 +41476,7 @@
       <c r="BI654" s="3"/>
       <c r="BJ654" s="3"/>
     </row>
-    <row r="655" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
@@ -41524,7 +41538,7 @@
       <c r="BI655" s="3"/>
       <c r="BJ655" s="3"/>
     </row>
-    <row r="656" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
@@ -41586,7 +41600,7 @@
       <c r="BI656" s="3"/>
       <c r="BJ656" s="3"/>
     </row>
-    <row r="657" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
@@ -41648,7 +41662,7 @@
       <c r="BI657" s="3"/>
       <c r="BJ657" s="3"/>
     </row>
-    <row r="658" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
@@ -41710,7 +41724,7 @@
       <c r="BI658" s="3"/>
       <c r="BJ658" s="3"/>
     </row>
-    <row r="659" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:62" x14ac:dyDescent="0.2">
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
